--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734500B7-135C-0E49-BF13-75894617541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0643472-B04A-D048-9EE2-6EFF1E4B44D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72180" yWindow="-10120" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="40880" yWindow="-18700" windowWidth="35160" windowHeight="25040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="174">
   <si>
     <t>key</t>
   </si>
@@ -205,12 +207,6 @@
     <t>perm.app.module.read</t>
   </si>
   <si>
-    <t>perm.app.upload</t>
-  </si>
-  <si>
-    <t>perm.app.download</t>
-  </si>
-  <si>
     <t>模块信息读取</t>
   </si>
   <si>
@@ -313,12 +309,6 @@
     <t>act.app.module.read</t>
   </si>
   <si>
-    <t>act.app.file.upload</t>
-  </si>
-  <si>
-    <t>act.app.file.download</t>
-  </si>
-  <si>
     <t>0e82ed16-91bf-4c41-b377-bd04d627c4d2</t>
   </si>
   <si>
@@ -365,12 +355,6 @@
   </si>
   <si>
     <t>res.app.module.read</t>
-  </si>
-  <si>
-    <t>res.app.file.upload</t>
-  </si>
-  <si>
-    <t>res.app.file.download</t>
   </si>
   <si>
     <t>/api/type/tabulars/:type</t>
@@ -514,6 +498,112 @@
   <si>
     <t>界面配置/模块配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bca2f9da-12a6-44a4-91e8-22ec1c36fd5f</t>
+  </si>
+  <si>
+    <t>333f573c-5da8-4f94-a1ce-3c9457231506</t>
+  </si>
+  <si>
+    <t>我的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e525279f-e997-4f6e-9514-c155367abec4</t>
+  </si>
+  <si>
+    <t>f1f8f303-80c8-45f7-8a40-cb5f62d08ebe</t>
+  </si>
+  <si>
+    <t>/api/file/my/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/file/my/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.file.upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.file.download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.file.my.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.file.my.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.file.upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.file.download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.file.my.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.file.my.file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.my.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.my.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98e163b6-2d50-42df-a835-3025b89e6816</t>
+  </si>
+  <si>
+    <t>37d83163-ca9b-4ee8-9acb-f86cfbc282fc</t>
+  </si>
+  <si>
+    <t>平台管理/文件管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.module.read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.file.manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164df6df-3737-46ad-b596-f0262ff2d88b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,25 +860,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -801,9 +876,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,6 +891,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I57"/>
+  <dimension ref="A3:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A30" sqref="A29:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1172,7 +1268,7 @@
     <col min="1" max="1" width="55.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="54.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
@@ -1183,1002 +1279,964 @@
     <col min="13" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" s="27" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" s="22" customFormat="1">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" s="22" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="A5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" s="27" customFormat="1">
-      <c r="A4" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="28" t="s">
+    </row>
+    <row r="6" spans="1:7" s="22" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="B6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="27" customFormat="1">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    <row r="7" spans="1:7" s="22" customFormat="1">
+      <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="B7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1">
+      <c r="A8" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="B8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="27" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="D8" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="22" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="B10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1">
+      <c r="A11" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="27" customFormat="1">
-      <c r="A7" s="10" t="s">
+      <c r="B11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="27" customFormat="1">
-      <c r="A8" s="10" t="s">
+      <c r="D11" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1">
+      <c r="A12" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="22" customFormat="1">
+      <c r="A13" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="27" customFormat="1">
-      <c r="A9" s="10" t="s">
+      <c r="B13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="22" customFormat="1">
+      <c r="A14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="27" customFormat="1">
-      <c r="A10" s="10" t="s">
+      <c r="B14" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="27" customFormat="1">
-      <c r="A11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="27" customFormat="1">
-      <c r="A13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="27" customFormat="1">
-      <c r="A14" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+      <c r="D14" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="22" customFormat="1">
+      <c r="A15" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>125</v>
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>125</v>
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:9" s="40" customFormat="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" s="34" customFormat="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C35" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="7" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="14" t="str">
-        <f t="shared" ref="B34:B42" si="0">A49</f>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="14" t="str">
+        <f t="shared" ref="B38:B46" si="0">A55</f>
         <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
       </c>
-      <c r="C34" s="14" t="str">
-        <f>A19</f>
+      <c r="C38" s="14" t="str">
+        <f>A21</f>
         <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="12" t="str">
+        <f>B21</f>
+        <v>单字典读取</v>
+      </c>
+      <c r="H38" s="12">
+        <v>2</v>
+      </c>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="12" t="str">
-        <f>B19</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="H34" s="12">
-        <v>2</v>
-      </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="14" t="str">
+      <c r="B39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
       </c>
-      <c r="C35" s="14" t="str">
-        <f>A20</f>
+      <c r="C39" s="14" t="str">
+        <f>A22</f>
         <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="12" t="str">
-        <f>B20</f>
+      <c r="F39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f>B22</f>
         <v>单类字典读取</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H39" s="12">
         <v>2</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="14" t="str">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
       </c>
-      <c r="C36" s="14" t="str">
-        <f>A21</f>
+      <c r="C40" s="14" t="str">
+        <f>A23</f>
         <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="12" t="str">
-        <f>B21</f>
+      <c r="D40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="12" t="str">
+        <f>B23</f>
         <v>多类字典读取</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H40" s="12">
         <v>2</v>
       </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="14" t="str">
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
       </c>
-      <c r="C37" s="14" t="str">
-        <f>A22</f>
+      <c r="C41" s="14" t="str">
+        <f>A24</f>
         <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D41" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="12" t="str">
-        <f>B22</f>
+      <c r="F41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="12" t="str">
+        <f>B24</f>
         <v>单类别读取</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H41" s="12">
         <v>2</v>
       </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="14" t="str">
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
       </c>
-      <c r="C38" s="14" t="str">
-        <f>A23</f>
+      <c r="C42" s="14" t="str">
+        <f>A25</f>
         <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="12" t="str">
-        <f>B23</f>
+      <c r="F42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="12" t="str">
+        <f>B25</f>
         <v>单类类别读取</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H42" s="12">
         <v>2</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="14" t="str">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="14" t="str">
         <f t="shared" si="0"/>
         <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
       </c>
-      <c r="C39" s="14" t="str">
-        <f>A24</f>
+      <c r="C43" s="14" t="str">
+        <f>A26</f>
         <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="12" t="str">
-        <f>B24</f>
+      <c r="D43" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="12" t="str">
+        <f>B26</f>
         <v>多类类别读取</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H43" s="12">
         <v>2</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="14" t="str">
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="14" t="str">
         <f t="shared" si="0"/>
         <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
       </c>
-      <c r="C40" s="14" t="str">
-        <f>A25</f>
+      <c r="C44" s="14" t="str">
+        <f>A27</f>
         <v>b582539c-385d-4259-8374-1bd503555cf2</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="D44" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="12" t="str">
-        <f>B25</f>
+      <c r="F44" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="12" t="str">
+        <f>B27</f>
         <v>模块信息读取</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H44" s="12">
         <v>2</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="14" t="str">
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>7affa0c4-afc4-4edb-aba2-ebd18687ae47</v>
       </c>
-      <c r="C41" s="14" t="str">
-        <f>A26</f>
+      <c r="C45" s="14" t="str">
+        <f>A28</f>
         <v>9d397b5e-12a7-4ca7-8e09-211d50ba7e5e</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="12" t="str">
-        <f>B26</f>
+      <c r="D45" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="12" t="str">
+        <f>B28</f>
         <v>上传</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H45" s="12">
         <v>2</v>
       </c>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="14" t="str">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>93e54284-57a4-4e9f-b85f-fa3e857bd6bc</v>
       </c>
-      <c r="C42" s="14" t="str">
-        <f>A27</f>
+      <c r="C46" s="14" t="str">
+        <f>A29</f>
         <v>7b8e9896-49b0-4013-a75d-f88b60413704</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="D46" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="12" t="str">
-        <f>B27</f>
+      <c r="F46" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="12" t="str">
+        <f>B29</f>
         <v>下载</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H46" s="12">
         <v>2</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="14" t="str">
+        <f t="shared" ref="B47:B48" si="1">A64</f>
+        <v>bca2f9da-12a6-44a4-91e8-22ec1c36fd5f</v>
+      </c>
+      <c r="C47" s="14" t="str">
+        <f>A30</f>
+        <v>e525279f-e997-4f6e-9514-c155367abec4</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="12" t="str">
+        <f t="shared" ref="G47:G48" si="2">B30</f>
+        <v>我的文件</v>
+      </c>
+      <c r="H47" s="12">
+        <v>2</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>333f573c-5da8-4f94-a1ce-3c9457231506</v>
+      </c>
+      <c r="C48" s="14" t="str">
+        <f t="shared" ref="C47:C48" si="3">A31</f>
+        <v>f1f8f303-80c8-45f7-8a40-cb5f62d08ebe</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>读取文件</v>
+      </c>
+      <c r="H48" s="12">
+        <v>2</v>
+      </c>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C52" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C53" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="19" t="s">
+      <c r="E53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H53" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I53" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="7" t="s">
+    <row r="54" spans="1:9">
+      <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="E54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="12" t="str">
-        <f>B19</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="12">
-        <v>2</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="12" t="str">
-        <f>B20</f>
-        <v>单类字典读取</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="12">
-        <v>2</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="12" t="str">
-        <f>B21</f>
-        <v>多类字典读取</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="12">
-        <v>2</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="12" t="str">
-        <f>B22</f>
-        <v>单类别读取</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="12">
-        <v>2</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="12" t="str">
-        <f>B23</f>
-        <v>单类类别读取</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="12">
-        <v>2</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="12" t="str">
-        <f>B24</f>
-        <v>多类类别读取</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="12">
-        <v>2</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="H54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B55" s="12" t="str">
-        <f>B25</f>
-        <v>模块信息读取</v>
+        <f>B21</f>
+        <v>单字典读取</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G55" s="12">
         <v>2</v>
@@ -2188,23 +2246,23 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B56" s="12" t="str">
-        <f>B26</f>
-        <v>上传</v>
+        <f>B22</f>
+        <v>单类字典读取</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G56" s="12">
         <v>2</v>
@@ -2213,24 +2271,24 @@
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="17" t="s">
-        <v>103</v>
+      <c r="A57" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B57" s="12" t="str">
-        <f>B27</f>
-        <v>下载</v>
+        <f>B23</f>
+        <v>多类字典读取</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G57" s="12">
         <v>2</v>
@@ -2238,11 +2296,219 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="12" t="str">
+        <f>B24</f>
+        <v>单类别读取</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="12">
+        <v>2</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="12" t="str">
+        <f>B25</f>
+        <v>单类类别读取</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="12">
+        <v>2</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="12" t="str">
+        <f>B26</f>
+        <v>多类类别读取</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="12">
+        <v>2</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="12" t="str">
+        <f>B27</f>
+        <v>模块信息读取</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="12">
+        <v>2</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="12" t="str">
+        <f>B28</f>
+        <v>上传</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" s="12">
+        <v>2</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="12" t="str">
+        <f>B29</f>
+        <v>下载</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" s="12">
+        <v>2</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="12" t="str">
+        <f t="shared" ref="B64:B65" si="4">B30</f>
+        <v>我的文件</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="12">
+        <v>2</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>读取文件</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="12">
+        <v>2</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C52:I52"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE944AE1-5E17-DE4B-BC58-E8B3198980ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B458B38-6BA5-C141-BC80-0660EA34603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70900" yWindow="-16800" windowWidth="35160" windowHeight="25040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="45680" yWindow="-9760" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
   <si>
     <t>key</t>
   </si>
@@ -458,6 +458,50 @@
   <si>
     <t>perm.app.module.read</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据/环境管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b20331d1-910f-4669-8c98-eec0eab35242</t>
+  </si>
+  <si>
+    <t>环境信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</t>
+  </si>
+  <si>
+    <t>res.app.update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>848b0174-d492-4d51-a3cb-a3be7f650982</t>
+  </si>
+  <si>
+    <t>/api/app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.app.update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1169a3d-695f-4f81-a8f3-533ce592fa3e</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I50"/>
+  <dimension ref="A3:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A42" sqref="A39:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1249,91 +1293,86 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+    <row r="13" spans="1:9" s="21" customFormat="1">
+      <c r="A13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>102</v>
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>108</v>
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>108</v>
@@ -1343,16 +1382,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>108</v>
@@ -1362,35 +1401,35 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>109</v>
@@ -1400,16 +1439,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>109</v>
@@ -1419,152 +1458,158 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="14" t="str">
-        <f>A44</f>
-        <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
-      </c>
-      <c r="C31" s="14" t="str">
-        <f>A18</f>
-        <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="12" t="str">
-        <f>B18</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="H31" s="12">
-        <v>2</v>
-      </c>
-      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="14" t="str">
-        <f>A45</f>
-        <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
+        <f t="shared" ref="B32:B39" si="0">A46</f>
+        <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
       </c>
       <c r="C32" s="14" t="str">
-        <f>A19</f>
-        <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
+        <f t="shared" ref="C32:C38" si="1">A19</f>
+        <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="G32" s="12" t="str">
-        <f>B19</f>
-        <v>单类字典读取</v>
+        <f t="shared" ref="G32:G38" si="2">B19</f>
+        <v>单字典读取</v>
       </c>
       <c r="H32" s="12">
         <v>2</v>
@@ -1573,28 +1618,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="14" t="str">
-        <f>A46</f>
-        <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
+        <f t="shared" si="0"/>
+        <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f>A20</f>
-        <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
+        <f t="shared" si="1"/>
+        <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G33" s="12" t="str">
-        <f>B20</f>
-        <v>多类字典读取</v>
+        <f t="shared" si="2"/>
+        <v>单类字典读取</v>
       </c>
       <c r="H33" s="12">
         <v>2</v>
@@ -1603,28 +1648,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="14" t="str">
-        <f>A47</f>
-        <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
+        <f t="shared" si="0"/>
+        <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
       </c>
       <c r="C34" s="14" t="str">
-        <f>A21</f>
-        <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
+        <f t="shared" si="1"/>
+        <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G34" s="12" t="str">
-        <f>B21</f>
-        <v>单类别读取</v>
+        <f t="shared" si="2"/>
+        <v>多类字典读取</v>
       </c>
       <c r="H34" s="12">
         <v>2</v>
@@ -1633,28 +1678,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="14" t="str">
-        <f>A48</f>
-        <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
+        <f t="shared" si="0"/>
+        <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
       </c>
       <c r="C35" s="14" t="str">
-        <f>A22</f>
-        <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
+        <f t="shared" si="1"/>
+        <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="12" t="str">
-        <f>B22</f>
-        <v>单类类别读取</v>
+        <f t="shared" si="2"/>
+        <v>单类别读取</v>
       </c>
       <c r="H35" s="12">
         <v>2</v>
@@ -1663,28 +1708,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="14" t="str">
-        <f>A49</f>
-        <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
+        <f t="shared" si="0"/>
+        <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
       </c>
       <c r="C36" s="14" t="str">
-        <f>A23</f>
-        <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
+        <f t="shared" si="1"/>
+        <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G36" s="12" t="str">
-        <f>B23</f>
-        <v>多类类别读取</v>
+        <f t="shared" si="2"/>
+        <v>单类类别读取</v>
       </c>
       <c r="H36" s="12">
         <v>2</v>
@@ -1693,174 +1738,182 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="14" t="str">
-        <f>A50</f>
-        <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
+        <f t="shared" si="0"/>
+        <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>A24</f>
-        <v>b582539c-385d-4259-8374-1bd503555cf2</v>
+        <f t="shared" si="1"/>
+        <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="12" t="str">
-        <f>B24</f>
-        <v>模块信息读取</v>
+        <f t="shared" si="2"/>
+        <v>多类类别读取</v>
       </c>
       <c r="H37" s="12">
         <v>2</v>
       </c>
       <c r="I37" s="12"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
+      </c>
+      <c r="C38" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>b582539c-385d-4259-8374-1bd503555cf2</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>模块信息读取</v>
+      </c>
+      <c r="H38" s="12">
+        <v>2</v>
+      </c>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>848b0174-d492-4d51-a3cb-a3be7f650982</v>
+      </c>
+      <c r="C39" s="14" t="str">
+        <f t="shared" ref="C39" si="3">A26</f>
+        <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f t="shared" ref="G39" si="4">B26</f>
+        <v>环境信息更新</v>
+      </c>
+      <c r="H39" s="12">
+        <v>8</v>
+      </c>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C43" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I44" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="12" t="str">
-        <f>B18</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="12">
-        <v>2</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="12" t="str">
-        <f>B19</f>
-        <v>单类字典读取</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="12">
-        <v>2</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="12" t="str">
-        <f>B20</f>
-        <v>多类字典读取</v>
+        <f t="shared" ref="B46:B53" si="5">B19</f>
+        <v>单字典读取</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>108</v>
@@ -1876,20 +1929,20 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" s="12" t="str">
-        <f>B21</f>
-        <v>单类别读取</v>
+        <f t="shared" si="5"/>
+        <v>单类字典读取</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>105</v>
@@ -1902,20 +1955,20 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="12" t="str">
-        <f>B22</f>
-        <v>单类类别读取</v>
+        <f t="shared" si="5"/>
+        <v>多类字典读取</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>105</v>
@@ -1928,17 +1981,17 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="12" t="str">
-        <f>B23</f>
-        <v>多类类别读取</v>
+        <f t="shared" si="5"/>
+        <v>单类别读取</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>109</v>
@@ -1954,23 +2007,23 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f>B24</f>
-        <v>模块信息读取</v>
+        <f t="shared" si="5"/>
+        <v>单类类别读取</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" s="12">
         <v>2</v>
@@ -1978,11 +2031,89 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>多类类别读取</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="12">
+        <v>2</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>模块信息读取</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="12">
+        <v>2</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>环境信息更新</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="12">
+        <v>8</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C43:I43"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B458B38-6BA5-C141-BC80-0660EA34603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F90DB-C9FC-694D-955D-5508EBB91720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45680" yWindow="-9760" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="58720" yWindow="-12120" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="156">
   <si>
     <t>key</t>
   </si>
@@ -502,6 +502,47 @@
   </si>
   <si>
     <t>c1169a3d-695f-4f81-a8f3-533ce592fa3e</t>
+  </si>
+  <si>
+    <t>perm.app.database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36d6a1d5-1dad-450f-b664-7d1df2d4da7e</t>
+  </si>
+  <si>
+    <t>x.database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源信息读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.app.database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e432fbd-5ebb-495b-8a0d-e3cca4b28bb0</t>
+  </si>
+  <si>
+    <t>/api/database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.app.database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4a66a10-5fcf-4aa2-ae40-aa4a3c9cf997</t>
+  </si>
+  <si>
+    <t>524d2d46-82cb-45ef-8f70-3ace75ed978f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1132,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I53"/>
+  <dimension ref="A3:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1145,7 +1186,7 @@
     <col min="4" max="4" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
@@ -1154,7 +1195,7 @@
     <col min="13" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" s="21" customFormat="1">
+    <row r="3" spans="1:7" s="21" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1208,7 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:9" s="21" customFormat="1">
+    <row r="4" spans="1:7" s="21" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>114</v>
       </c>
@@ -1181,7 +1222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1">
+    <row r="5" spans="1:7" s="21" customFormat="1">
       <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1">
+    <row r="6" spans="1:7" s="21" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>122</v>
       </c>
@@ -1209,7 +1250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1">
+    <row r="7" spans="1:7" s="21" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>124</v>
       </c>
@@ -1223,7 +1264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1">
+    <row r="8" spans="1:7" s="21" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>125</v>
       </c>
@@ -1237,7 +1278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1">
+    <row r="9" spans="1:7" s="21" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>126</v>
       </c>
@@ -1251,7 +1292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1">
+    <row r="10" spans="1:7" s="21" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>128</v>
       </c>
@@ -1265,7 +1306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1">
+    <row r="11" spans="1:7" s="21" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>129</v>
       </c>
@@ -1279,7 +1320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1">
+    <row r="12" spans="1:7" s="21" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>130</v>
       </c>
@@ -1293,7 +1334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="21" customFormat="1">
+    <row r="13" spans="1:7" s="21" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>135</v>
       </c>
@@ -1307,91 +1348,86 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+    <row r="14" spans="1:7" s="21" customFormat="1">
+      <c r="A14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>102</v>
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>108</v>
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>108</v>
@@ -1401,16 +1437,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>108</v>
@@ -1420,35 +1456,35 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>109</v>
@@ -1458,16 +1494,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>109</v>
@@ -1477,495 +1513,509 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C31" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D33" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="14" t="str">
-        <f t="shared" ref="B32:B39" si="0">A46</f>
+      <c r="B34" s="14" t="str">
+        <f t="shared" ref="B34:B41" si="0">A48</f>
         <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
       </c>
-      <c r="C32" s="14" t="str">
-        <f t="shared" ref="C32:C38" si="1">A19</f>
+      <c r="C34" s="14" t="str">
+        <f t="shared" ref="C34:C40" si="1">A20</f>
         <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="12" t="str">
-        <f t="shared" ref="G32:G38" si="2">B19</f>
+      <c r="G34" s="12" t="str">
+        <f t="shared" ref="G34:G40" si="2">B20</f>
         <v>单字典读取</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H34" s="12">
         <v>2</v>
       </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="10" t="s">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="14" t="str">
+      <c r="B35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
       </c>
-      <c r="C33" s="14" t="str">
+      <c r="C35" s="14" t="str">
         <f t="shared" si="1"/>
         <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="12" t="str">
+      <c r="G35" s="12" t="str">
         <f t="shared" si="2"/>
         <v>单类字典读取</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H35" s="12">
         <v>2</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10" t="s">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="14" t="str">
+      <c r="B36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
       </c>
-      <c r="C34" s="14" t="str">
+      <c r="C36" s="14" t="str">
         <f t="shared" si="1"/>
         <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="12" t="str">
+      <c r="G36" s="12" t="str">
         <f t="shared" si="2"/>
         <v>多类字典读取</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H36" s="12">
         <v>2</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="10" t="s">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="14" t="str">
+      <c r="B37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
       </c>
-      <c r="C35" s="14" t="str">
+      <c r="C37" s="14" t="str">
         <f t="shared" si="1"/>
         <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="12" t="str">
+      <c r="G37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>单类别读取</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H37" s="12">
         <v>2</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="10" t="s">
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="14" t="str">
+      <c r="B38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
       </c>
-      <c r="C36" s="14" t="str">
+      <c r="C38" s="14" t="str">
         <f t="shared" si="1"/>
         <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="12" t="str">
+      <c r="G38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>单类类别读取</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H38" s="12">
         <v>2</v>
       </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="10" t="s">
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="14" t="str">
+      <c r="B39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
       </c>
-      <c r="C37" s="14" t="str">
+      <c r="C39" s="14" t="str">
         <f t="shared" si="1"/>
         <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="12" t="str">
+      <c r="G39" s="12" t="str">
         <f t="shared" si="2"/>
         <v>多类类别读取</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H39" s="12">
         <v>2</v>
       </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="10" t="s">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="14" t="str">
+      <c r="B40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
       </c>
-      <c r="C38" s="14" t="str">
+      <c r="C40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>b582539c-385d-4259-8374-1bd503555cf2</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="12" t="str">
+      <c r="G40" s="12" t="str">
         <f t="shared" si="2"/>
         <v>模块信息读取</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H40" s="12">
         <v>2</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="10" t="s">
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="14" t="str">
+      <c r="B41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>848b0174-d492-4d51-a3cb-a3be7f650982</v>
       </c>
-      <c r="C39" s="14" t="str">
-        <f t="shared" ref="C39" si="3">A26</f>
+      <c r="C41" s="14" t="str">
+        <f t="shared" ref="C41" si="3">A27</f>
         <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="12" t="str">
-        <f t="shared" ref="G39" si="4">B26</f>
+      <c r="G41" s="12" t="str">
+        <f t="shared" ref="G41" si="4">B27</f>
         <v>环境信息更新</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H41" s="12">
         <v>8</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="14" t="str">
+        <f t="shared" ref="B42" si="5">A56</f>
+        <v>5e432fbd-5ebb-495b-8a0d-e3cca4b28bb0</v>
+      </c>
+      <c r="C42" s="14" t="str">
+        <f t="shared" ref="C42" si="6">A28</f>
+        <v>524d2d46-82cb-45ef-8f70-3ace75ed978f</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="12" t="str">
+        <f t="shared" ref="G42" si="7">B28</f>
+        <v>数据源信息读取</v>
+      </c>
+      <c r="H42" s="12">
+        <v>2</v>
+      </c>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C45" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="5" t="s">
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="7" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="12" t="str">
-        <f t="shared" ref="B46:B53" si="5">B19</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="12">
-        <v>2</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>单类字典读取</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="12">
-        <v>2</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>多类字典读取</v>
+        <f t="shared" ref="B48:B56" si="8">B20</f>
+        <v>单字典读取</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>108</v>
@@ -1981,20 +2031,20 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>单类别读取</v>
+        <f t="shared" si="8"/>
+        <v>单类字典读取</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>105</v>
@@ -2007,20 +2057,20 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>单类类别读取</v>
+        <f t="shared" si="8"/>
+        <v>多类字典读取</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>105</v>
@@ -2033,17 +2083,17 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>多类类别读取</v>
+        <f t="shared" si="8"/>
+        <v>单类别读取</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>109</v>
@@ -2059,23 +2109,23 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>模块信息读取</v>
+        <f t="shared" si="8"/>
+        <v>单类类别读取</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G52" s="12">
         <v>2</v>
@@ -2085,35 +2135,113 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="10" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="B53" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>环境信息更新</v>
+        <f t="shared" si="8"/>
+        <v>多类类别读取</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>105</v>
       </c>
       <c r="G53" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>模块信息读取</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="12">
+        <v>2</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>环境信息更新</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="12">
+        <v>8</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>数据源信息读取</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="12">
+        <v>2</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C45:I45"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F90DB-C9FC-694D-955D-5508EBB91720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1083F7-2730-9C4A-8F2A-E0DD689B2848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58720" yWindow="-12120" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="58720" yWindow="-12480" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
   <si>
     <t>key</t>
   </si>
@@ -542,6 +542,47 @@
   </si>
   <si>
     <t>524d2d46-82cb-45ef-8f70-3ace75ed978f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adffe813-bf8d-480e-9bdb-9afcf48ee6ec</t>
+  </si>
+  <si>
+    <t>x.notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告信息同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.app.notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4ee2bbc-5952-41ce-81c6-c1b3264705df</t>
+  </si>
+  <si>
+    <t>/api/notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.app.notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcacafce-f08c-4d35-8295-7afc9cd23795</t>
+  </si>
+  <si>
+    <t>4b3d8f78-5cef-4705-b2eb-847b8d38672d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,6 +872,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I56"/>
+  <dimension ref="A3:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1362,91 +1413,86 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
+    <row r="15" spans="1:7" s="21" customFormat="1">
+      <c r="A15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>102</v>
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>108</v>
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>108</v>
@@ -1456,16 +1502,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>108</v>
@@ -1475,35 +1521,35 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>109</v>
@@ -1513,16 +1559,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>109</v>
@@ -1532,597 +1578,566 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>134</v>
+        <v>57</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>137</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D29" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>147</v>
       </c>
     </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="7" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="14" t="str">
-        <f t="shared" ref="B34:B41" si="0">A48</f>
+      <c r="B37" s="14" t="str">
+        <f t="shared" ref="B37:B44" si="0">A52</f>
         <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
       </c>
-      <c r="C34" s="14" t="str">
-        <f t="shared" ref="C34:C40" si="1">A20</f>
+      <c r="C37" s="14" t="str">
+        <f>A21</f>
         <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="12" t="str">
-        <f t="shared" ref="G34:G40" si="2">B20</f>
+      <c r="G37" s="12" t="str">
+        <f>B21</f>
         <v>单字典读取</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H37" s="12">
         <v>2</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="10" t="s">
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="14" t="str">
+      <c r="B38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
       </c>
-      <c r="C35" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C38" s="14" t="str">
+        <f>A22</f>
         <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="G38" s="12" t="str">
+        <f>B22</f>
         <v>单类字典读取</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H38" s="12">
         <v>2</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="10" t="s">
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="14" t="str">
+      <c r="B39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
       </c>
-      <c r="C36" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C39" s="14" t="str">
+        <f>A23</f>
         <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="G39" s="12" t="str">
+        <f>B23</f>
         <v>多类字典读取</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H39" s="12">
         <v>2</v>
       </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="10" t="s">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="14" t="str">
+      <c r="B40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
       </c>
-      <c r="C37" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C40" s="14" t="str">
+        <f>A24</f>
         <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="G40" s="12" t="str">
+        <f>B24</f>
         <v>单类别读取</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H40" s="12">
         <v>2</v>
       </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="10" t="s">
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="14" t="str">
+      <c r="B41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
       </c>
-      <c r="C38" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C41" s="14" t="str">
+        <f>A25</f>
         <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="G41" s="12" t="str">
+        <f>B25</f>
         <v>单类类别读取</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H41" s="12">
         <v>2</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="10" t="s">
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="14" t="str">
+      <c r="B42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
       </c>
-      <c r="C39" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C42" s="14" t="str">
+        <f>A26</f>
         <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="G42" s="12" t="str">
+        <f>B26</f>
         <v>多类类别读取</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H42" s="12">
         <v>2</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="10" t="s">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="14" t="str">
+      <c r="B43" s="14" t="str">
         <f t="shared" si="0"/>
         <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
       </c>
-      <c r="C40" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C43" s="14" t="str">
+        <f>A27</f>
         <v>b582539c-385d-4259-8374-1bd503555cf2</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="G43" s="12" t="str">
+        <f>B27</f>
         <v>模块信息读取</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H43" s="12">
         <v>2</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="10" t="s">
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="14" t="str">
+      <c r="B44" s="14" t="str">
         <f t="shared" si="0"/>
         <v>848b0174-d492-4d51-a3cb-a3be7f650982</v>
       </c>
-      <c r="C41" s="14" t="str">
-        <f t="shared" ref="C41" si="3">A27</f>
+      <c r="C44" s="14" t="str">
+        <f t="shared" ref="C44" si="1">A28</f>
         <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="12" t="str">
-        <f t="shared" ref="G41" si="4">B27</f>
+      <c r="G44" s="12" t="str">
+        <f t="shared" ref="G44" si="2">B28</f>
         <v>环境信息更新</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H44" s="12">
         <v>8</v>
       </c>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="10" t="s">
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="14" t="str">
-        <f t="shared" ref="B42" si="5">A56</f>
+      <c r="B45" s="14" t="str">
+        <f t="shared" ref="B45" si="3">A60</f>
         <v>5e432fbd-5ebb-495b-8a0d-e3cca4b28bb0</v>
       </c>
-      <c r="C42" s="14" t="str">
-        <f t="shared" ref="C42" si="6">A28</f>
+      <c r="C45" s="14" t="str">
+        <f t="shared" ref="C45" si="4">A29</f>
         <v>524d2d46-82cb-45ef-8f70-3ace75ed978f</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="12" t="str">
-        <f t="shared" ref="G42" si="7">B28</f>
+      <c r="G45" s="12" t="str">
+        <f t="shared" ref="G45" si="5">B29</f>
         <v>数据源信息读取</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H45" s="12">
         <v>2</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="14" t="str">
+        <f t="shared" ref="B46" si="6">A61</f>
+        <v>a4ee2bbc-5952-41ce-81c6-c1b3264705df</v>
+      </c>
+      <c r="C46" s="14" t="str">
+        <f t="shared" ref="C46" si="7">A30</f>
+        <v>4b3d8f78-5cef-4705-b2eb-847b8d38672d</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="12" t="str">
+        <f t="shared" ref="G46" si="8">B30</f>
+        <v>公告信息同步</v>
+      </c>
+      <c r="H46" s="12">
+        <v>8</v>
+      </c>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C49" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G50" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I50" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="7" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D51" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="12" t="str">
-        <f t="shared" ref="B48:B56" si="8">B20</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="12">
-        <v>2</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>单类字典读取</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="12">
-        <v>2</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>多类字典读取</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="12">
-        <v>2</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>单类别读取</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="12">
-        <v>2</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B52" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>单类类别读取</v>
+        <f t="shared" ref="B52:B61" si="9">B21</f>
+        <v>单字典读取</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>105</v>
@@ -2135,20 +2150,20 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B53" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>多类类别读取</v>
+        <f t="shared" si="9"/>
+        <v>单类字典读取</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>105</v>
@@ -2161,23 +2176,23 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B54" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>模块信息读取</v>
+        <f t="shared" si="9"/>
+        <v>多类字典读取</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G54" s="12">
         <v>2</v>
@@ -2187,46 +2202,46 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="10" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B55" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>环境信息更新</v>
+        <f t="shared" si="9"/>
+        <v>单类别读取</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>105</v>
       </c>
       <c r="G55" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="10" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B56" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>数据源信息读取</v>
+        <f t="shared" si="9"/>
+        <v>单类类别读取</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>105</v>
@@ -2237,11 +2252,141 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>多类类别读取</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="12">
+        <v>2</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>模块信息读取</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="12">
+        <v>2</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>环境信息更新</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="12">
+        <v>8</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>数据源信息读取</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="12">
+        <v>2</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>公告信息同步</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="12">
+        <v>8</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C49:I49"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/ambient.app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1083F7-2730-9C4A-8F2A-E0DD689B2848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B121BA9-5DE4-2B4B-B33F-5EC816B60FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58720" yWindow="-12480" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -567,10 +567,6 @@
     <t>a4ee2bbc-5952-41ce-81c6-c1b3264705df</t>
   </si>
   <si>
-    <t>/api/notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +579,10 @@
   </si>
   <si>
     <t>4b3d8f78-5cef-4705-b2eb-847b8d38672d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/notice-dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,6 +854,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,16 +882,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1227,7 @@
   <dimension ref="A3:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1253,8 +1253,8 @@
       <c r="B3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
@@ -1434,11 +1434,11 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="I18" s="3"/>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>159</v>
@@ -1666,11 +1666,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="35"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
@@ -1679,15 +1679,15 @@
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
@@ -1756,7 +1756,7 @@
         <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>A21</f>
+        <f t="shared" ref="C37:C43" si="1">A21</f>
         <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -1769,7 +1769,7 @@
         <v>65</v>
       </c>
       <c r="G37" s="12" t="str">
-        <f>B21</f>
+        <f t="shared" ref="G37:G43" si="2">B21</f>
         <v>单字典读取</v>
       </c>
       <c r="H37" s="12">
@@ -1786,7 +1786,7 @@
         <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
       </c>
       <c r="C38" s="14" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -1799,7 +1799,7 @@
         <v>97</v>
       </c>
       <c r="G38" s="12" t="str">
-        <f>B22</f>
+        <f t="shared" si="2"/>
         <v>单类字典读取</v>
       </c>
       <c r="H38" s="12">
@@ -1816,7 +1816,7 @@
         <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
       </c>
       <c r="C39" s="14" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -1829,7 +1829,7 @@
         <v>100</v>
       </c>
       <c r="G39" s="12" t="str">
-        <f>B23</f>
+        <f t="shared" si="2"/>
         <v>多类字典读取</v>
       </c>
       <c r="H39" s="12">
@@ -1846,7 +1846,7 @@
         <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
       </c>
       <c r="C40" s="14" t="str">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -1859,7 +1859,7 @@
         <v>98</v>
       </c>
       <c r="G40" s="12" t="str">
-        <f>B24</f>
+        <f t="shared" si="2"/>
         <v>单类别读取</v>
       </c>
       <c r="H40" s="12">
@@ -1876,7 +1876,7 @@
         <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
       </c>
       <c r="C41" s="14" t="str">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -1889,7 +1889,7 @@
         <v>99</v>
       </c>
       <c r="G41" s="12" t="str">
-        <f>B25</f>
+        <f t="shared" si="2"/>
         <v>单类类别读取</v>
       </c>
       <c r="H41" s="12">
@@ -1906,7 +1906,7 @@
         <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
       </c>
       <c r="C42" s="14" t="str">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -1919,7 +1919,7 @@
         <v>75</v>
       </c>
       <c r="G42" s="12" t="str">
-        <f>B26</f>
+        <f t="shared" si="2"/>
         <v>多类类别读取</v>
       </c>
       <c r="H42" s="12">
@@ -1936,7 +1936,7 @@
         <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
       </c>
       <c r="C43" s="14" t="str">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>b582539c-385d-4259-8374-1bd503555cf2</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -1949,7 +1949,7 @@
         <v>76</v>
       </c>
       <c r="G43" s="12" t="str">
-        <f>B27</f>
+        <f t="shared" si="2"/>
         <v>模块信息读取</v>
       </c>
       <c r="H43" s="12">
@@ -1966,7 +1966,7 @@
         <v>848b0174-d492-4d51-a3cb-a3be7f650982</v>
       </c>
       <c r="C44" s="14" t="str">
-        <f t="shared" ref="C44" si="1">A28</f>
+        <f t="shared" ref="C44" si="3">A28</f>
         <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -1979,7 +1979,7 @@
         <v>141</v>
       </c>
       <c r="G44" s="12" t="str">
-        <f t="shared" ref="G44" si="2">B28</f>
+        <f t="shared" ref="G44" si="4">B28</f>
         <v>环境信息更新</v>
       </c>
       <c r="H44" s="12">
@@ -1992,11 +1992,11 @@
         <v>154</v>
       </c>
       <c r="B45" s="14" t="str">
-        <f t="shared" ref="B45" si="3">A60</f>
+        <f t="shared" ref="B45" si="5">A60</f>
         <v>5e432fbd-5ebb-495b-8a0d-e3cca4b28bb0</v>
       </c>
       <c r="C45" s="14" t="str">
-        <f t="shared" ref="C45" si="4">A29</f>
+        <f t="shared" ref="C45" si="6">A29</f>
         <v>524d2d46-82cb-45ef-8f70-3ace75ed978f</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -2009,7 +2009,7 @@
         <v>151</v>
       </c>
       <c r="G45" s="12" t="str">
-        <f t="shared" ref="G45" si="5">B29</f>
+        <f t="shared" ref="G45" si="7">B29</f>
         <v>数据源信息读取</v>
       </c>
       <c r="H45" s="12">
@@ -2019,27 +2019,27 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="14" t="str">
-        <f t="shared" ref="B46" si="6">A61</f>
+        <f t="shared" ref="B46" si="8">A61</f>
         <v>a4ee2bbc-5952-41ce-81c6-c1b3264705df</v>
       </c>
       <c r="C46" s="14" t="str">
-        <f t="shared" ref="C46" si="7">A30</f>
+        <f t="shared" ref="C46" si="9">A30</f>
         <v>4b3d8f78-5cef-4705-b2eb-847b8d38672d</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G46" s="12" t="str">
-        <f t="shared" ref="G46" si="8">B30</f>
+        <f t="shared" ref="G46" si="10">B30</f>
         <v>公告信息同步</v>
       </c>
       <c r="H46" s="12">
@@ -2054,15 +2054,15 @@
       <c r="B49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
@@ -2127,7 +2127,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="12" t="str">
-        <f t="shared" ref="B52:B61" si="9">B21</f>
+        <f t="shared" ref="B52:B61" si="11">B21</f>
         <v>单字典读取</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -2153,7 +2153,7 @@
         <v>84</v>
       </c>
       <c r="B53" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>单类字典读取</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -2179,7 +2179,7 @@
         <v>85</v>
       </c>
       <c r="B54" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>多类字典读取</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -2205,7 +2205,7 @@
         <v>86</v>
       </c>
       <c r="B55" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>单类别读取</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -2231,7 +2231,7 @@
         <v>87</v>
       </c>
       <c r="B56" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>单类类别读取</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -2257,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="B57" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>多类类别读取</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -2283,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="B58" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>模块信息读取</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -2309,7 +2309,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>环境信息更新</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -2335,7 +2335,7 @@
         <v>150</v>
       </c>
       <c r="B60" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>数据源信息读取</v>
       </c>
       <c r="C60" s="12" t="s">
@@ -2361,7 +2361,7 @@
         <v>161</v>
       </c>
       <c r="B61" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>公告信息同步</v>
       </c>
       <c r="C61" s="12" t="s">
